--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3659959.074910012</v>
+        <v>3655946.464896019</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7646700.502757089</v>
+        <v>7646700.502757088</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.0052957619196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>62.45439117602597</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>58.64078506563713</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.99649157474511</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>194.5727296124809</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>171.4077969409758</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>150.0883301783448</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>187.720273409089</v>
+        <v>205.1131621266977</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>160.7035496952604</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>138.5343125815924</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>32.05158559392713</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>172.3645574474252</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.5667167289878</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>126.1348013633909</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>184.484928399377</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881283</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>125.2193560244683</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969021</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.445727774094267</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>202.2646441552131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>54.29785174158985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>109.8058856274587</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>133.745793352658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855437</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>942.9472709150257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>584.6815723082752</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.509627919559</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064757</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080136</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>797.4834000772721</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1199.924444051042</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1199.924444051042</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>979.1318649075118</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363905</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678289</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.0847133907091</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1664.324902016752</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1664.324902016752</v>
       </c>
       <c r="U7" t="n">
-        <v>1272.407217324853</v>
+        <v>1375.222035142396</v>
       </c>
       <c r="V7" t="n">
-        <v>1017.722729118966</v>
+        <v>1120.537546936509</v>
       </c>
       <c r="W7" t="n">
-        <v>1017.722729118966</v>
+        <v>831.1203768995482</v>
       </c>
       <c r="X7" t="n">
-        <v>789.7331782209488</v>
+        <v>603.1308260015309</v>
       </c>
       <c r="Y7" t="n">
-        <v>789.7331782209488</v>
+        <v>382.3382468580007</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328344</v>
+        <v>1896.503151925171</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.200456328344</v>
+        <v>1527.54063498476</v>
       </c>
       <c r="D8" t="n">
-        <v>1063.934757721593</v>
+        <v>1527.54063498476</v>
       </c>
       <c r="E8" t="n">
-        <v>678.146505123349</v>
+        <v>1141.752382386515</v>
       </c>
       <c r="F8" t="n">
-        <v>267.1606003337415</v>
+        <v>730.7664775969079</v>
       </c>
       <c r="G8" t="n">
-        <v>256.128554219142</v>
+        <v>315.6940274419043</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392465</v>
+        <v>2283.102991989293</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392465</v>
+        <v>2283.102991989293</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1169.327103036486</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.000285162486</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1007.000285162486</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5026,40 +5026,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>754.5554335404219</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>604.4387941280861</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,46 +5281,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096652</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636217</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>989.3306680894892</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>820.3944851615823</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>670.2778457492466</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>522.3647521668535</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>375.4748046689431</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>208.278705383823</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919729</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1170.979132919729</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561823</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>768.5380889459586</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>618.4214495336229</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>470.5083559512298</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.439036126373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4148.363809470571</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3893.679321264684</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3604.262151227724</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3376.272600329706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3301.825327801252</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.889144873345</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>2982.77250546101</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>2834.859411878616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2687.969464380706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3932.255922673039</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3704.266371775022</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3483.473792631492</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>954.2476448606607</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>785.3114619327538</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>635.194822520418</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>487.2817289380249</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.687952571559</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812249</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3656.118547443347</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3428.128996545329</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3207.336417401799</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1922.614765620014</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1667.930277414127</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1378.513107377167</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1150.523556479149</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>929.7309773356194</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1553.289092892425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1263.871922855465</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.882371957447</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>815.0897928139171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>7.899650064976754</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>108.2431272522967</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>45.04089287986309</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.26526345294951</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.00954930701784</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28624665954031</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>32.9205219279113</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>40.30478226780052</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>142.975320248837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>84.25835418137794</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>231.8866226476543</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>71.22040037418591</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>118.39184997117</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658526.1030172633</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="15">
@@ -26319,43 +26319,43 @@
         <v>779989.6813710692</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184269</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184272</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26527,43 +26527,43 @@
         <v>579261.8979264819</v>
       </c>
       <c r="D6" t="n">
-        <v>579261.8979264819</v>
+        <v>579261.8979264817</v>
       </c>
       <c r="E6" t="n">
-        <v>326647.4699624004</v>
+        <v>326300.090708044</v>
       </c>
       <c r="F6" t="n">
-        <v>652059.9317697557</v>
+        <v>651712.5525153994</v>
       </c>
       <c r="G6" t="n">
-        <v>652059.9317697564</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="H6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153989</v>
       </c>
       <c r="I6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="J6" t="n">
-        <v>434528.7293724788</v>
+        <v>434181.3501181215</v>
       </c>
       <c r="K6" t="n">
-        <v>652059.9317697561</v>
+        <v>651712.5525153991</v>
       </c>
       <c r="L6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153987</v>
       </c>
       <c r="M6" t="n">
-        <v>567004.9038342445</v>
+        <v>566657.524579887</v>
       </c>
       <c r="N6" t="n">
-        <v>652059.931769756</v>
+        <v>651712.5525153989</v>
       </c>
       <c r="O6" t="n">
-        <v>652059.9317697559</v>
+        <v>651712.5525153992</v>
       </c>
       <c r="P6" t="n">
-        <v>652059.9317697565</v>
+        <v>651712.5525153987</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973561</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>222.9250743103422</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>307.2767095024431</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>227.8822132709539</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>323.7373500887355</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>191.6652090435727</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.3612283904661</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>136.1235080272681</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>106.8874909782315</v>
+        <v>89.49460226062274</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.00610569377673</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31603,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>424.0909547148526</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>233.3139244897912</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>522.1224556861829</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>530.5785304507781</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4947102704082</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>94.75954470991702</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>556.7168329578466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>379.5262112417385</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>388.4444965287598</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3655946.464896019</v>
+        <v>3657706.995198805</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>357.0621555633468</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>62.45439117602597</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039627</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>94.81275980261485</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.5727296124809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>171.4077969409758</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>333.5426380090051</v>
       </c>
       <c r="H8" t="n">
-        <v>205.1131621266977</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>43.73846614325492</v>
       </c>
       <c r="T16" t="n">
-        <v>172.3645574474252</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>145.2857567969021</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.890142568492</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1618.75081059268</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064757</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080136</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4527,13 +4527,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051532</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066532</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.3382468580007</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>213.4020639300938</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1664.324902016752</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1664.324902016752</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1375.222035142396</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>1120.537546936509</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>831.1203768995482</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>603.1308260015309</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.3382468580007</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925171</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.54063498476</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.54063498476</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E8" t="n">
-        <v>1141.752382386515</v>
+        <v>856.4066755469739</v>
       </c>
       <c r="F8" t="n">
-        <v>730.7664775969079</v>
+        <v>445.4207707573664</v>
       </c>
       <c r="G8" t="n">
-        <v>315.6940274419043</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989293</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989293</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5023,52 +5023,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T16" t="n">
-        <v>2272.857469997003</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6378,10 +6378,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6882,7 +6882,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7356,13 +7356,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
         <v>484.8112968429803</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>137.2878198583897</v>
       </c>
       <c r="T16" t="n">
-        <v>45.04089287986309</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.11969353038614</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658526.1030172635</v>
+        <v>658526.1030172636</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658526.1030172636</v>
+        <v>658526.1030172635</v>
       </c>
     </row>
     <row r="12">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055057</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
@@ -26340,22 +26340,22 @@
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055055</v>
-      </c>
       <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,7 +26441,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26450,16 +26450,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749482.8478011109</v>
+        <v>-749482.8478011108</v>
       </c>
       <c r="C6" t="n">
-        <v>579261.8979264819</v>
+        <v>579261.8979264817</v>
       </c>
       <c r="D6" t="n">
-        <v>579261.8979264817</v>
+        <v>579261.8979264818</v>
       </c>
       <c r="E6" t="n">
-        <v>326300.090708044</v>
+        <v>326612.7320369654</v>
       </c>
       <c r="F6" t="n">
-        <v>651712.5525153994</v>
+        <v>652025.1938443203</v>
       </c>
       <c r="G6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="H6" t="n">
-        <v>651712.5525153989</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="I6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="J6" t="n">
-        <v>434181.3501181215</v>
+        <v>434493.9914470427</v>
       </c>
       <c r="K6" t="n">
-        <v>651712.5525153991</v>
+        <v>652025.1938443203</v>
       </c>
       <c r="L6" t="n">
-        <v>651712.5525153987</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="M6" t="n">
-        <v>566657.524579887</v>
+        <v>566970.1659088086</v>
       </c>
       <c r="N6" t="n">
-        <v>651712.5525153989</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="O6" t="n">
-        <v>651712.5525153992</v>
+        <v>652025.1938443204</v>
       </c>
       <c r="P6" t="n">
-        <v>651712.5525153987</v>
+        <v>652025.1938443203</v>
       </c>
     </row>
   </sheetData>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>24.868214508915</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>307.2767095024431</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>274.9183408758542</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435727</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>18.3612283904661</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>77.3790876444483</v>
       </c>
       <c r="H8" t="n">
-        <v>89.49460226062274</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
